--- a/classfiers/greedy/randomForest/greedy-randomForest-results.xlsx
+++ b/classfiers/greedy/randomForest/greedy-randomForest-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
         <v>1</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.998550724637681</v>
       </c>
     </row>
     <row r="3">
@@ -495,7 +495,7 @@
         <v>0.5</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9971014492753623</v>
+        <v>0.9992063492063492</v>
       </c>
     </row>
     <row r="4">
@@ -508,10 +508,10 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>0.7499999999999999</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>0.9952153110047848</v>
       </c>
     </row>
     <row r="6">
@@ -546,13 +546,13 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>0.9569377990430622</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>0.72</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7333333333333333</v>
+        <v>0.4666666666666666</v>
       </c>
       <c r="D7" t="n">
-        <v>0.82</v>
+        <v>0.51</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9991304347826088</v>
+        <v>0.9902718918508391</v>
       </c>
     </row>
   </sheetData>
